--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220507_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220507_110006.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-07</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220507_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220507_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>MBC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MORE VISION</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1182,7 @@
         <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1263,7 +1260,7 @@
         <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1289,7 +1286,7 @@
         <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1315,7 +1312,7 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1341,7 +1338,7 @@
         <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1393,7 +1390,7 @@
         <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1419,7 +1416,7 @@
         <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1471,7 +1468,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1497,7 +1494,7 @@
         <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1523,7 +1520,7 @@
         <v>219</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1549,7 +1546,7 @@
         <v>224</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1575,7 +1572,7 @@
         <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1601,7 +1598,7 @@
         <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1627,7 +1624,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1653,7 +1650,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1679,7 +1676,7 @@
         <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1705,7 +1702,7 @@
         <v>219</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1757,7 +1754,7 @@
         <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1783,7 +1780,7 @@
         <v>219</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1809,7 +1806,7 @@
         <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1835,7 +1832,7 @@
         <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1861,7 +1858,7 @@
         <v>219</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1887,7 +1884,7 @@
         <v>219</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1913,7 +1910,7 @@
         <v>219</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1939,7 +1936,7 @@
         <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1991,7 +1988,7 @@
         <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2017,7 +2014,7 @@
         <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2043,7 +2040,7 @@
         <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2069,7 +2066,7 @@
         <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2095,7 +2092,7 @@
         <v>233</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2121,7 +2118,7 @@
         <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2147,7 +2144,7 @@
         <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2173,7 +2170,7 @@
         <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2199,7 +2196,7 @@
         <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2251,7 +2248,7 @@
         <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2277,7 +2274,7 @@
         <v>223</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2303,7 +2300,7 @@
         <v>234</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2355,7 +2352,7 @@
         <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2381,7 +2378,7 @@
         <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2433,7 +2430,7 @@
         <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2459,7 +2456,7 @@
         <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2485,7 +2482,7 @@
         <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2511,7 +2508,7 @@
         <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2563,7 +2560,7 @@
         <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>220</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2641,7 +2638,7 @@
         <v>224</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2693,7 +2690,7 @@
         <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2719,7 +2716,7 @@
         <v>227</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2745,7 +2742,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2771,7 +2768,7 @@
         <v>240</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2797,7 +2794,7 @@
         <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2823,7 +2820,7 @@
         <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2875,7 +2872,7 @@
         <v>227</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2901,7 +2898,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2927,7 +2924,7 @@
         <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2979,7 +2976,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3005,7 +3002,7 @@
         <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3031,7 +3028,7 @@
         <v>234</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3057,7 +3054,7 @@
         <v>227</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3109,7 +3106,7 @@
         <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3161,7 +3158,7 @@
         <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3187,7 +3184,7 @@
         <v>245</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3213,7 +3210,7 @@
         <v>242</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3239,7 +3236,7 @@
         <v>230</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3265,7 +3262,7 @@
         <v>246</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3291,7 +3288,7 @@
         <v>215</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3317,7 +3314,7 @@
         <v>247</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3369,7 +3366,7 @@
         <v>248</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3421,7 +3418,7 @@
         <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3473,7 +3470,7 @@
         <v>230</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3499,7 +3496,7 @@
         <v>249</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3551,7 +3548,7 @@
         <v>224</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3577,7 +3574,7 @@
         <v>215</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3603,7 +3600,7 @@
         <v>250</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3629,7 +3626,7 @@
         <v>251</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3655,7 +3652,7 @@
         <v>224</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3681,7 +3678,7 @@
         <v>215</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3707,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3759,7 +3756,7 @@
         <v>224</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
